--- a/dist/assets/BOs/Thor.xlsx
+++ b/dist/assets/BOs/Thor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAFA9E9-7046-4875-A88F-24FBBBC06D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCC1052-C50A-41EB-B388-3769A88EB718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
-    <t>Thor - Dwarven Armory - Mirez</t>
-  </si>
-  <si>
     <t>Archaic</t>
   </si>
   <si>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>Add a few dwarves to gold</t>
+  </si>
+  <si>
+    <t>Dwarven Armory - By Mirez</t>
   </si>
 </sst>
 </file>
@@ -740,15 +740,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -756,7 +756,7 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -764,7 +764,7 @@
     </row>
     <row r="3" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -772,69 +772,69 @@
     </row>
     <row r="4" spans="1:4" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="144" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="315" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -842,7 +842,7 @@
     </row>
     <row r="10" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -850,31 +850,31 @@
     </row>
     <row r="11" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -882,7 +882,7 @@
     </row>
     <row r="14" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -890,10 +890,10 @@
     </row>
     <row r="15" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>

--- a/dist/assets/BOs/Thor.xlsx
+++ b/dist/assets/BOs/Thor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCC1052-C50A-41EB-B388-3769A88EB718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BDD3D5-F428-49F6-AF63-A874875A477F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Archaic</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>Dwarven Armory - By Mirez</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WHZn2cJNOkc</t>
   </si>
 </sst>
 </file>
@@ -738,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,6 +900,11 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/dist/assets/BOs/Thor.xlsx
+++ b/dist/assets/BOs/Thor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BDD3D5-F428-49F6-AF63-A874875A477F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55EAE59-7378-417D-981E-17C7FED38762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Archaic</t>
   </si>
@@ -63,7 +63,19 @@
     <t>Berserk builds a dwarven armory</t>
   </si>
   <si>
-    <t>When the armory is done research Copper Mail, this dwarf will go to gold</t>
+    <t>2 gathers to wood</t>
+  </si>
+  <si>
+    <t>Berserker builds a House</t>
+  </si>
+  <si>
+    <t>Start training Hersir</t>
+  </si>
+  <si>
+    <t>Build an ox cart for wood</t>
+  </si>
+  <si>
+    <t>Add a few dwarves to gold</t>
   </si>
   <si>
     <r>
@@ -77,6 +89,60 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 dwarf to gold</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 4 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Research Copper Armor, this dwarf will go to wood</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 / 2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>5</t>
     </r>
     <r>
@@ -90,11 +156,40 @@
     </r>
   </si>
   <si>
-    <t>2 dwarves to gold</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 / </t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 5 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 dwarf to food</t>
+  </si>
+  <si>
+    <t>Research Copper Shields, this dwarf will go to food</t>
+  </si>
+  <si>
+    <t>Berserker builds a house after Copper Shields</t>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
     </r>
     <r>
       <rPr>
@@ -104,7 +199,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>2</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -117,11 +212,43 @@
     </r>
   </si>
   <si>
-    <t>2 gathers to wood</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 / </t>
+    <t>7 dwarves to food</t>
+  </si>
+  <si>
+    <t>Research Copper Weapons, this dwarf will go to food</t>
+  </si>
+  <si>
+    <t>Berserker builds a temple after Copper Weapons</t>
+  </si>
+  <si>
+    <t>Advance (3.36)</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 5 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
     </r>
     <r>
       <rPr>
@@ -131,48 +258,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 5 / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>1 dwarf to wood</t>
-  </si>
-  <si>
-    <t>Research Copper Shields</t>
-  </si>
-  <si>
-    <t>Berserker builds a house after Copper Shields, this dwarf will go to gold</t>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 3 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>7</t>
     </r>
     <r>
@@ -182,124 +267,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>9 dwarves to food</t>
-  </si>
-  <si>
-    <t>Research Copper Weapons</t>
-  </si>
-  <si>
-    <t>Berserker builds a temple after Copper Weapons, this dwarf will go to gold
-Force drop gold after placing the temple to avoid idling your town center</t>
-  </si>
-  <si>
-    <t>Advance (3.30)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9 / 3 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>Berserker builds a House</t>
-  </si>
-  <si>
-    <t>Start training Hersir</t>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>Move 3 dwarves from food and gold to wood</t>
-  </si>
-  <si>
-    <t>Build an ox cart for wood</t>
-  </si>
-  <si>
-    <t>Classical (4.30)</t>
-  </si>
-  <si>
-    <t>8 / 7 / 5 / 0</t>
-  </si>
-  <si>
-    <t>Add a few dwarves to gold</t>
-  </si>
-  <si>
-    <t>Dwarven Armory - By Mirez</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WHZn2cJNOkc</t>
+      <t xml:space="preserve"> / 4 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Move 4 dwarves from food and gold to wood</t>
+  </si>
+  <si>
+    <t>Classical (4.36)</t>
+  </si>
+  <si>
+    <t>Dwarven Armory V2 - Mirez</t>
   </si>
 </sst>
 </file>
@@ -743,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +735,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -773,7 +751,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -783,135 +761,140 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="144" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="315" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
+    <row r="16" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dist/assets/BOs/Thor.xlsx
+++ b/dist/assets/BOs/Thor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55EAE59-7378-417D-981E-17C7FED38762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8A2E8C-22C9-49FA-A65D-38AA4C380E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Berserk builds a dwarven armory</t>
   </si>
   <si>
-    <t>2 gathers to wood</t>
-  </si>
-  <si>
     <t>Berserker builds a House</t>
   </si>
   <si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>Dwarven Armory V2 - Mirez</t>
+  </si>
+  <si>
+    <t>2 gatherer to wood</t>
   </si>
 </sst>
 </file>
@@ -421,6 +421,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -428,15 +437,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -722,26 +722,32 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" customWidth="1"/>
+    <col min="4" max="4" width="56.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -751,7 +757,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -765,71 +771,71 @@
     </row>
     <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -841,35 +847,35 @@
     </row>
     <row r="12" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -881,10 +887,10 @@
     </row>
     <row r="16" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>

--- a/dist/assets/BOs/Thor.xlsx
+++ b/dist/assets/BOs/Thor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8A2E8C-22C9-49FA-A65D-38AA4C380E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180F8D9F-7E39-4C79-B5CD-46649ACC767B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Archaic</t>
   </si>
@@ -278,13 +278,16 @@
   </si>
   <si>
     <t>2 gatherer to wood</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iyERSRwVEkw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +328,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -407,10 +418,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -439,8 +451,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -719,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +899,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -894,6 +908,11 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -902,6 +921,9 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1" tooltip="https://www.youtube.com/watch?v=iyERSRwVEkw" xr:uid="{0DA9C09D-46DA-49C3-B619-6B30D7DB887E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dist/assets/BOs/Thor.xlsx
+++ b/dist/assets/BOs/Thor.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180F8D9F-7E39-4C79-B5CD-46649ACC767B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C08C55-9590-4F4C-AF43-A4DA4D729E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>Archaic</t>
   </si>
@@ -281,13 +282,614 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=iyERSRwVEkw</t>
+  </si>
+  <si>
+    <t>Auto Queue Dwarves/ Stop Vill Auto Queue (Let first vill train tho)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">0 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>First 3 Dwarves and Ox Cart to Gold Mine</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Berserker to build </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dwarven Armory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(All Dwarves from here will go to Gold Mine)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Vill and 1 Dwarve to Wood</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Research </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Copper Plates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as soon as Armory gets build/  Make wood vills gather the Tree that is closest to the Tree Line</t>
+    </r>
+  </si>
+  <si>
+    <t>Make sure Berserker herd Hunt near TC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">0 / 2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>2 Dwarves to Gold</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Build second </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ox Cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> near wood as soon as you hit 50 Wood</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 to Dwarve Wood</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">At </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">research </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Copper Shields</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 6 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>3 Dwarves to Food</t>
+  </si>
+  <si>
+    <t>As soon as your tree gets chopped down, move 1 vill to food and let the 2 remaining wood Dwarves go to the Tree Line with the Ox Cart</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Berserker to build </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>House</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Dwarve to Food</t>
+  </si>
+  <si>
+    <r>
+      <t>At 2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">research </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Copper Weapons</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 7 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>2 Dwarve to Food</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Berserker to build </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Temple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as soons as you hit 135 Wood + 150 Gold</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 5 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Move 2 Dwarves from Gold to Food</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 5 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Age up at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3:55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as Freya </t>
+    </r>
+  </si>
+  <si>
+    <t>Advance - Freya (3.55)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Train </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hersir</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Auto Queue </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hand Axe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Hersir to build </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>House</t>
+    </r>
+  </si>
+  <si>
+    <t>Send Berserker to Explore Map</t>
+  </si>
+  <si>
+    <t>4 / 8 / 6 / 1</t>
+  </si>
+  <si>
+    <t>Move 6 Dwarves from Food to Wood after you queue second Hersir (Can be less if player wants early aggression)</t>
+  </si>
+  <si>
+    <t>Train third Hersir</t>
+  </si>
+  <si>
+    <t>Classical (4.55)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Auto Queue </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pick Axe</t>
+    </r>
+  </si>
+  <si>
+    <t>Send 1 Hersir to grab Relics/ Send Valk to Explore or Raid</t>
+  </si>
+  <si>
+    <t>4 / 8 / 6 / 3</t>
+  </si>
+  <si>
+    <t>Build Longhouse for early raids or Military Barracks for fast 2 TC</t>
+  </si>
+  <si>
+    <t>Build 1 House</t>
+  </si>
+  <si>
+    <t>Next Dwarves will go to Wood if player wants 2 TCs or Food if player wants early aggression</t>
+  </si>
+  <si>
+    <t>Early Ox Cart + Eco Upgrades - By Rokko</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,8 +938,136 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +1084,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -418,11 +1160,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -433,6 +1177,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -451,11 +1226,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte 2" xfId="3" xr:uid="{B11739F6-FDE6-4BD0-8C36-0CFEE279B9F8}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{BA916F6D-0AA8-412E-A9FA-B3C94E125972}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -732,14 +1508,327 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6680AA3C-660E-4512-8311-360274DD2AC9}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75">
+      <c r="A21" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="13"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="22"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75">
+      <c r="A27" s="10"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75">
+      <c r="A28" s="10"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="12"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75">
+      <c r="A31" s="11"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="12"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.75">
+      <c r="A33" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A26:D26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
@@ -747,23 +1836,23 @@
     <col min="4" max="4" width="56.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1">
+      <c r="A1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -771,7 +1860,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -783,7 +1872,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -793,7 +1882,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -805,7 +1894,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -815,7 +1904,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -829,7 +1918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -843,15 +1932,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -859,7 +1948,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -871,7 +1960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -883,15 +1972,15 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -899,7 +1988,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -909,8 +1998,8 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
     </row>

--- a/dist/assets/BOs/Thor.xlsx
+++ b/dist/assets/BOs/Thor.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C08C55-9590-4F4C-AF43-A4DA4D729E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289D48ED-149A-4067-AFCE-B00513A86565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
   <si>
     <t>Archaic</t>
   </si>
@@ -883,13 +884,196 @@
   </si>
   <si>
     <t>Early Ox Cart + Eco Upgrades - By Rokko</t>
+  </si>
+  <si>
+    <t>Initial vills: 
+3 Dwarf to Gold</t>
+  </si>
+  <si>
+    <t>Make a Dwarf
+Queue 1 Dwarf + 2 Gatherers</t>
+  </si>
+  <si>
+    <t>Beserk pushes Hunt into TC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Dwarf to Gold</t>
+  </si>
+  <si>
+    <t>Auto-queue Dwarfs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ 0 / 4 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>2 Gatherers + 5 Dwarfs on Food</t>
+  </si>
+  <si>
+    <t>Berserk makes Temple right after pushing all the hunt</t>
+  </si>
+  <si>
+    <t>Advance at 11 villagers (Freya) - Force-Drop Food if needed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Vills transition:
+3 Dwarves and 2 Gatherers from Food to straggler trees
+2 Dwarfs from Gold to Food</t>
+  </si>
+  <si>
+    <t>Make Hersirs ASAP</t>
+  </si>
+  <si>
+    <t>Classical</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 5 / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>First new Dwarf on Food</t>
+  </si>
+  <si>
+    <t>Vs Poseidon: Make Barracks
+Vs Kronos: Make Great Hall</t>
+  </si>
+  <si>
+    <t>Scout with Myth Unit</t>
+  </si>
+  <si>
+    <t>BO - Anti Krush/Poseidon - By Golden Royal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,6 +1245,43 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1160,13 +1381,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1226,12 +1448,49 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Lien hypertexte 2" xfId="3" xr:uid="{B11739F6-FDE6-4BD0-8C36-0CFEE279B9F8}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{BA916F6D-0AA8-412E-A9FA-B3C94E125972}"/>
+    <cellStyle name="Standaard 2" xfId="4" xr:uid="{E55BC761-90A7-422C-8143-611105070BB1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1511,7 +1770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6680AA3C-660E-4512-8311-360274DD2AC9}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -1821,6 +2080,192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8687E243-15B1-41C8-AC08-9FC8810D84BA}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" ht="75">
+      <c r="A4" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="32"/>
+    </row>
+    <row r="6" spans="1:4" ht="90">
+      <c r="A6" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:4" ht="165">
+      <c r="A9" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="105">
+      <c r="A11" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="38"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="30"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="35"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="35"/>
+      <c r="B17" s="31"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="37"/>
+      <c r="B19" s="31"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.75">
+      <c r="A20" s="36"/>
+      <c r="B20" s="31"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="37"/>
+      <c r="B21" s="31"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.75">
+      <c r="A22" s="36"/>
+      <c r="B22" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>

--- a/dist/assets/BOs/Thor.xlsx
+++ b/dist/assets/BOs/Thor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289D48ED-149A-4067-AFCE-B00513A86565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FB09C3-4612-4495-ADF3-F3F4330C0F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -1770,7 +1770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6680AA3C-660E-4512-8311-360274DD2AC9}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -2083,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8687E243-15B1-41C8-AC08-9FC8810D84BA}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/dist/assets/BOs/Thor.xlsx
+++ b/dist/assets/BOs/Thor.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FB09C3-4612-4495-ADF3-F3F4330C0F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13B2444-5AA9-43AA-9A24-5AE79F960B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="3" r:id="rId2"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="120">
   <si>
     <t>Archaic</t>
   </si>
@@ -1067,13 +1068,175 @@
   </si>
   <si>
     <t>BO - Anti Krush/Poseidon - By Golden Royal</t>
+  </si>
+  <si>
+    <t>Food / Wood / Gold</t>
+  </si>
+  <si>
+    <t>Villagers and dwarves</t>
+  </si>
+  <si>
+    <t>Berserker/Dock</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 </t>
+    </r>
+  </si>
+  <si>
+    <t>Queue two dwarves. Starting three dwarves goes to wood. The berserker builds a dock. Queue fishing ships.</t>
+  </si>
+  <si>
+    <t>After completing the dock, scout a small circle around base. And build the house when you reach 12 population.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 / 3d / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2d</t>
+    </r>
+  </si>
+  <si>
+    <t>Cast dwarven gold mine close to the TC. The first two dwarves we train goes on gold.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 3d / 2d</t>
+    </r>
+  </si>
+  <si>
+    <t>Queue two gatherers and rally to hunt.</t>
+  </si>
+  <si>
+    <t>Temporarily stop making fishing ships when you have 4, in order to build the temple.</t>
+  </si>
+  <si>
+    <r>
+      <t>2v / 3d /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4d</t>
+    </r>
+  </si>
+  <si>
+    <t>Two dwarves to gold</t>
+  </si>
+  <si>
+    <t>Build temple asap around 02:20</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 3d / 4d</t>
+    </r>
+  </si>
+  <si>
+    <t>Three gatherer to hunt</t>
+  </si>
+  <si>
+    <t>Make two more fishing ships.</t>
+  </si>
+  <si>
+    <t>5v / 4d / 4d</t>
+  </si>
+  <si>
+    <t>Finally queue one last dwarf to wood. Forcedrop food just before 3:00 and click advance through Freya. After the dwarven gold mine runs out move them to normal gold mine and make an ox-cart.</t>
+  </si>
+  <si>
+    <t>During Advance</t>
+  </si>
+  <si>
+    <t>0 / 4d5v / 4d</t>
+  </si>
+  <si>
+    <t>While advancing, move all of the food villagers to wood. Get Handaxe.</t>
+  </si>
+  <si>
+    <t>Make a 2nd dock</t>
+  </si>
+  <si>
+    <t>0 / 4d5v / 4d+</t>
+  </si>
+  <si>
+    <t>Train dwarves to gold until 6-7. Then add more to wood and food. When you can maintain constant production from both docks, or if you win ore lose water, make an armory and get your upgrades.</t>
+  </si>
+  <si>
+    <t>Remember to train a few hersirs for defence vs myth units, and raid with your valk and cast forrest fire.</t>
+  </si>
+  <si>
+    <t>4:00 fast Medit BO - By CraggHack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,6 +1449,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1388,7 +1570,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1419,6 +1601,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1430,6 +1646,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1448,42 +1668,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1770,27 +1954,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6680AA3C-660E-4512-8311-360274DD2AC9}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
@@ -1925,12 +2109,12 @@
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6"/>
@@ -1977,12 +2161,12 @@
       <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" ht="15.75">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
@@ -2023,10 +2207,10 @@
       <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="22"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:4" ht="15.75">
       <c r="A27" s="10"/>
@@ -2080,6 +2264,144 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CCFC68-0746-4C6F-BCC1-F86EACB19062}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" thickBot="1">
+      <c r="A1" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" ht="48" thickBot="1">
+      <c r="A3" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="226.5" thickBot="1">
+      <c r="A4" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="166.5" thickBot="1">
+      <c r="A5" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3" ht="151.5" thickBot="1">
+      <c r="A6" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="76.5" thickBot="1">
+      <c r="A7" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="61.5" thickBot="1">
+      <c r="A8" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="361.5" thickBot="1">
+      <c r="A9" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="30"/>
+    </row>
+    <row r="10" spans="1:3" ht="32.25" thickBot="1">
+      <c r="A10" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="1:3" ht="136.5" thickBot="1">
+      <c r="A11" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A12" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="1:3" ht="361.5" thickBot="1">
+      <c r="A13" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8687E243-15B1-41C8-AC08-9FC8810D84BA}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -2090,168 +2412,168 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="21" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" ht="90">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" ht="165">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:4" ht="105">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="24" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="34"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="31"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="38"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="30"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="35"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:2" ht="15.75">
-      <c r="A17" s="35"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2" ht="15.75">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2" ht="15.75">
-      <c r="A20" s="36"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2" ht="15.75">
-      <c r="A22" s="36"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2265,7 +2587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -2282,20 +2604,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -2378,12 +2700,12 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1">
       <c r="A11" s="1" t="s">
@@ -2418,12 +2740,12 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1">
       <c r="A15" s="1" t="s">
